--- a/library/_fmlReport.xlsx
+++ b/library/_fmlReport.xlsx
@@ -229,6 +229,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -237,30 +261,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -386,13 +386,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>34457</xdr:colOff>
+      <xdr:colOff>167807</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>10551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>452745</xdr:colOff>
+      <xdr:colOff>586095</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>96882</xdr:rowOff>
     </xdr:to>
@@ -417,8 +417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9929571" y="10551"/>
-          <a:ext cx="2453917" cy="826560"/>
+          <a:off x="9883307" y="10551"/>
+          <a:ext cx="2409013" cy="848331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -767,7 +767,7 @@
   <dimension ref="A9:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,27 +783,27 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="9" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="18"/>
     </row>
     <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -812,29 +812,29 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -850,66 +850,66 @@
       <c r="Q11" s="8"/>
     </row>
     <row r="13" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="17" t="s">
+      <c r="F13" s="15"/>
+      <c r="G13" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="18" t="s">
+      <c r="I13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="18" t="s">
+      <c r="J13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="18" t="s">
+      <c r="K13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19" t="s">
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="19"/>
+      <c r="O13" s="14"/>
       <c r="P13" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
       <c r="L14" s="2" t="s">
         <v>8</v>
       </c>
@@ -923,605 +923,599 @@
         <v>9</v>
       </c>
       <c r="P14" s="20"/>
-      <c r="Q14" s="17"/>
+      <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-    </row>
-    <row r="18" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="15"/>
-    </row>
-    <row r="19" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-    </row>
-    <row r="20" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-    </row>
-    <row r="21" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-    </row>
-    <row r="22" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-    </row>
-    <row r="23" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-    </row>
-    <row r="24" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15"/>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" s="15"/>
-      <c r="Q24" s="15"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="15"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="15"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
-      <c r="P32" s="15"/>
-      <c r="Q32" s="15"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="15"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="15"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="15"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="15"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="15"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="15"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="15"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="15"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="15"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="15"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="15"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="15"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="15"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
-      <c r="I45" s="16"/>
-      <c r="J45" s="16"/>
-      <c r="K45" s="16"/>
-      <c r="L45" s="16"/>
-      <c r="M45" s="16"/>
-      <c r="N45" s="16"/>
-      <c r="O45" s="16"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="16"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="E9:Q9"/>
     <mergeCell ref="E10:Q10"/>
@@ -1533,6 +1527,12 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/library/_fmlReport.xlsx
+++ b/library/_fmlReport.xlsx
@@ -235,6 +235,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -243,27 +264,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -386,14 +386,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>167807</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:colOff>246249</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>10551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>586095</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>14596</xdr:colOff>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>96882</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -417,8 +417,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9883307" y="10551"/>
-          <a:ext cx="2409013" cy="848331"/>
+          <a:off x="10600484" y="201051"/>
+          <a:ext cx="2547406" cy="848331"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -766,8 +766,8 @@
   </sheetPr>
   <dimension ref="A9:Q45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,27 +783,27 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="17" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="18"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -812,29 +812,29 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="18"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
     </row>
     <row r="11" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -850,66 +850,66 @@
       <c r="Q11" s="8"/>
     </row>
     <row r="13" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="14" t="s">
+      <c r="L13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14" t="s">
+      <c r="M13" s="15"/>
+      <c r="N13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="14"/>
-      <c r="P13" s="20" t="s">
+      <c r="O13" s="15"/>
+      <c r="P13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="2" t="s">
         <v>8</v>
       </c>
@@ -922,8 +922,8 @@
       <c r="O14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="17"/>
     </row>
     <row r="15" spans="1:17" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
@@ -1516,6 +1516,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="E9:Q9"/>
     <mergeCell ref="E10:Q10"/>
@@ -1527,20 +1533,14 @@
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="H13:H14"/>
     <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="68" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="48" max="16" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="17" max="52" man="1"/>
+    <brk id="17" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
